--- a/lab5/lab3results  (version 1).xlsx
+++ b/lab5/lab3results  (version 1).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="33600" windowHeight="20460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -156,13 +156,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -225,6 +225,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -448,11 +449,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2075093624"/>
-        <c:axId val="2075096680"/>
+        <c:axId val="2146436808"/>
+        <c:axId val="-2146004168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2075093624"/>
+        <c:axId val="2146436808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -461,7 +462,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2075096680"/>
+        <c:crossAx val="-2146004168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -469,7 +470,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2075096680"/>
+        <c:axId val="-2146004168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -510,7 +511,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2075093624"/>
+        <c:crossAx val="2146436808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -683,11 +684,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2074348456"/>
-        <c:axId val="2074345464"/>
+        <c:axId val="-2146752568"/>
+        <c:axId val="-2146749592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2074348456"/>
+        <c:axId val="-2146752568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -696,7 +697,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2074345464"/>
+        <c:crossAx val="-2146749592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -704,7 +705,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2074345464"/>
+        <c:axId val="-2146749592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -734,7 +735,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2074348456"/>
+        <c:crossAx val="-2146752568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -907,11 +908,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2031687752"/>
-        <c:axId val="2087472056"/>
+        <c:axId val="-2146709272"/>
+        <c:axId val="-2146706152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2031687752"/>
+        <c:axId val="-2146709272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -920,7 +921,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2087472056"/>
+        <c:crossAx val="-2146706152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -928,7 +929,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2087472056"/>
+        <c:axId val="-2146706152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -943,7 +944,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2031687752"/>
+        <c:crossAx val="-2146709272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1130,11 +1131,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2113246648"/>
-        <c:axId val="2113250888"/>
+        <c:axId val="-2146667064"/>
+        <c:axId val="-2146664008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2113246648"/>
+        <c:axId val="-2146667064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1143,7 +1144,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2113250888"/>
+        <c:crossAx val="-2146664008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1151,7 +1152,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2113250888"/>
+        <c:axId val="-2146664008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1166,7 +1167,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2113246648"/>
+        <c:crossAx val="-2146667064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1179,6 +1180,464 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$115:$G$119</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0413625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.03095225</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.020565625</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0105493125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.00663178125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$115:$H$119</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0413595</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.030922</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.020730875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.01055125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$115:$I$119</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.04135</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.030957</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.020767375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0105540625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.00660396875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$115:$J$119</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0413115</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0309205</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.020727125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.010546</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.00662296875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2146840776"/>
+        <c:axId val="-2143248232"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2146840776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2143248232"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2143248232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2146840776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>1408 Exacution</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Times</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>median</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$115:$B$119</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.082725</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.123809</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.164525</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.168789</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.212217</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>medians</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$115:$C$119</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.082719</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.123688</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.165847</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16882</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>random</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$115:$D$119</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0827</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.123828</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.166139</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.168865</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.211327</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>mean</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$115:$E$119</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.082623</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.123682</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.165817</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.168736</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.211935</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2141378584"/>
+        <c:axId val="-2144725528"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2141378584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2144725528"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2144725528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100"/>
+                  <a:t>exacution</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                  <a:t> time</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1100"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2141378584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+      </c:dTable>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
@@ -1306,6 +1765,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1638,8 +2157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="G90" sqref="G90"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="I127" sqref="I127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1656,16 +2175,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
@@ -1842,16 +2361,16 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10">
@@ -2039,16 +2558,16 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
@@ -2333,11 +2852,11 @@
       <c r="A33" t="s">
         <v>2</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
@@ -2432,10 +2951,10 @@
       <c r="C66" t="s">
         <v>9</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="D66" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E66" s="7" t="s">
+      <c r="E66" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2449,10 +2968,10 @@
       <c r="C67">
         <v>8.1733E-2</v>
       </c>
-      <c r="D67" s="5">
+      <c r="D67" s="4">
         <v>8.1706000000000001E-2</v>
       </c>
-      <c r="E67" s="7">
+      <c r="E67" s="6">
         <v>8.1615999999999994E-2</v>
       </c>
       <c r="G67">
@@ -2482,10 +3001,10 @@
       <c r="C68">
         <v>0.124684</v>
       </c>
-      <c r="D68" s="5">
+      <c r="D68" s="4">
         <v>0.124519</v>
       </c>
-      <c r="E68" s="7">
+      <c r="E68" s="6">
         <v>0.123671</v>
       </c>
       <c r="G68">
@@ -2515,10 +3034,10 @@
       <c r="C69">
         <v>0.168653</v>
       </c>
-      <c r="D69" s="7">
+      <c r="D69" s="6">
         <v>0.16669100000000001</v>
       </c>
-      <c r="E69" s="5">
+      <c r="E69" s="4">
         <v>0.16767599999999999</v>
       </c>
       <c r="G69">
@@ -2548,10 +3067,10 @@
       <c r="C70">
         <v>0.173847</v>
       </c>
-      <c r="D70" s="5">
+      <c r="D70" s="4">
         <v>0.173569</v>
       </c>
-      <c r="E70" s="7">
+      <c r="E70" s="6">
         <v>0.17285500000000001</v>
       </c>
       <c r="G70">
@@ -2581,10 +3100,10 @@
       <c r="C71">
         <v>0.22170899999999999</v>
       </c>
-      <c r="D71" s="7">
+      <c r="D71" s="6">
         <v>0.21956600000000001</v>
       </c>
-      <c r="E71" s="5">
+      <c r="E71" s="4">
         <v>0.21956600000000001</v>
       </c>
       <c r="G71">
@@ -2616,7 +3135,7 @@
       <c r="C74" t="s">
         <v>9</v>
       </c>
-      <c r="D74" s="7" t="s">
+      <c r="D74" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E74" t="s">
@@ -2627,7 +3146,7 @@
       <c r="A75">
         <v>2</v>
       </c>
-      <c r="B75" s="5">
+      <c r="B75" s="4">
         <v>0.80639000000000005</v>
       </c>
       <c r="C75">
@@ -2636,7 +3155,7 @@
       <c r="D75">
         <v>0.80825000000000002</v>
       </c>
-      <c r="E75" s="7">
+      <c r="E75" s="6">
         <v>8.0625000000000002E-2</v>
       </c>
       <c r="G75">
@@ -2663,10 +3182,10 @@
       <c r="B76">
         <v>0.122764</v>
       </c>
-      <c r="C76" s="7">
+      <c r="C76" s="6">
         <v>0.121778</v>
       </c>
-      <c r="D76" s="5">
+      <c r="D76" s="4">
         <v>0.121832</v>
       </c>
       <c r="E76">
@@ -2699,10 +3218,10 @@
       <c r="C77">
         <v>0.164909</v>
       </c>
-      <c r="D77" s="7">
+      <c r="D77" s="6">
         <v>0.16364899999999999</v>
       </c>
-      <c r="E77" s="5">
+      <c r="E77" s="4">
         <v>0.163748</v>
       </c>
       <c r="G77">
@@ -2729,10 +3248,10 @@
       <c r="B78">
         <v>0.16787099999999999</v>
       </c>
-      <c r="C78" s="5">
+      <c r="C78" s="4">
         <v>0.16784199999999999</v>
       </c>
-      <c r="D78" s="7">
+      <c r="D78" s="6">
         <v>0.16777800000000001</v>
       </c>
       <c r="E78">
@@ -2759,13 +3278,13 @@
       <c r="A79">
         <v>32</v>
       </c>
-      <c r="B79" s="5">
+      <c r="B79" s="4">
         <v>0.21181900000000001</v>
       </c>
       <c r="C79">
         <v>0.212669</v>
       </c>
-      <c r="D79" s="7">
+      <c r="D79" s="6">
         <v>0.21112600000000001</v>
       </c>
       <c r="E79">
@@ -2797,10 +3316,10 @@
       <c r="B82" t="s">
         <v>8</v>
       </c>
-      <c r="C82" s="7" t="s">
+      <c r="C82" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D82" s="5" t="s">
+      <c r="D82" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E82" t="s">
@@ -2811,10 +3330,10 @@
       <c r="A83">
         <v>2</v>
       </c>
-      <c r="B83" s="5">
+      <c r="B83" s="4">
         <v>8.1723000000000004E-2</v>
       </c>
-      <c r="C83" s="7">
+      <c r="C83" s="6">
         <v>8.1712999999999994E-2</v>
       </c>
       <c r="D83">
@@ -2847,10 +3366,10 @@
       <c r="B84">
         <v>0.121915</v>
       </c>
-      <c r="C84" s="5">
+      <c r="C84" s="4">
         <v>0.12187199999999999</v>
       </c>
-      <c r="D84" s="7">
+      <c r="D84" s="6">
         <v>0.121852</v>
       </c>
       <c r="E84">
@@ -2880,10 +3399,10 @@
       <c r="B85">
         <v>0.16387199999999999</v>
       </c>
-      <c r="C85" s="5">
+      <c r="C85" s="4">
         <v>0.16383200000000001</v>
       </c>
-      <c r="D85" s="7">
+      <c r="D85" s="6">
         <v>0.16376299999999999</v>
       </c>
       <c r="E85">
@@ -2910,7 +3429,7 @@
       <c r="A86">
         <v>16</v>
       </c>
-      <c r="B86" s="5">
+      <c r="B86" s="4">
         <v>0.16773299999999999</v>
       </c>
       <c r="C86">
@@ -2919,7 +3438,7 @@
       <c r="D86">
         <v>0.16780600000000001</v>
       </c>
-      <c r="E86" s="7">
+      <c r="E86" s="6">
         <v>0.16691700000000001</v>
       </c>
       <c r="G86">
@@ -2943,10 +3462,10 @@
       <c r="A87">
         <v>32</v>
       </c>
-      <c r="B87" s="5">
+      <c r="B87" s="4">
         <v>0.211892</v>
       </c>
-      <c r="C87" s="7">
+      <c r="C87" s="6">
         <v>0.211753</v>
       </c>
       <c r="D87">
@@ -2984,10 +3503,10 @@
       <c r="C90" t="s">
         <v>9</v>
       </c>
-      <c r="D90" s="7" t="s">
+      <c r="D90" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E90" s="5" t="s">
+      <c r="E90" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2995,13 +3514,13 @@
       <c r="A91">
         <v>2</v>
       </c>
-      <c r="B91" s="5">
+      <c r="B91" s="4">
         <v>8.1837999999999994E-2</v>
       </c>
       <c r="C91">
         <v>8.1955E-2</v>
       </c>
-      <c r="D91" s="7">
+      <c r="D91" s="6">
         <v>8.1710000000000005E-2</v>
       </c>
       <c r="E91">
@@ -3034,10 +3553,10 @@
       <c r="C92">
         <v>0.123671</v>
       </c>
-      <c r="D92" s="7">
+      <c r="D92" s="6">
         <v>0.12255099999999999</v>
       </c>
-      <c r="E92" s="5">
+      <c r="E92" s="4">
         <v>0.12284</v>
       </c>
       <c r="G92">
@@ -3061,7 +3580,7 @@
       <c r="A93">
         <v>8</v>
       </c>
-      <c r="B93" s="7">
+      <c r="B93" s="6">
         <v>0.16395199999999999</v>
       </c>
       <c r="C93">
@@ -3070,7 +3589,7 @@
       <c r="D93">
         <v>0.16569900000000001</v>
       </c>
-      <c r="E93" s="5">
+      <c r="E93" s="4">
         <v>0.164826</v>
       </c>
       <c r="G93">
@@ -3100,10 +3619,10 @@
       <c r="C94">
         <v>0.185867</v>
       </c>
-      <c r="D94" s="7">
+      <c r="D94" s="6">
         <v>0.16774800000000001</v>
       </c>
-      <c r="E94" s="5">
+      <c r="E94" s="4">
         <v>0.16786000000000001</v>
       </c>
       <c r="G94">
@@ -3130,10 +3649,10 @@
       <c r="B95">
         <v>0.21293300000000001</v>
       </c>
-      <c r="D95" s="5">
+      <c r="D95" s="4">
         <v>0.211033</v>
       </c>
-      <c r="E95" s="7">
+      <c r="E95" s="6">
         <v>0.21088899999999999</v>
       </c>
       <c r="G95">
@@ -3165,10 +3684,10 @@
       <c r="C98" t="s">
         <v>9</v>
       </c>
-      <c r="D98" s="5" t="s">
+      <c r="D98" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E98" s="7" t="s">
+      <c r="E98" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3179,13 +3698,13 @@
       <c r="B99">
         <v>8.2607E-2</v>
       </c>
-      <c r="C99" s="5">
+      <c r="C99" s="4">
         <v>8.1526000000000001E-2</v>
       </c>
       <c r="D99">
         <v>8.2122000000000001E-2</v>
       </c>
-      <c r="E99" s="7">
+      <c r="E99" s="6">
         <v>8.1281999999999993E-2</v>
       </c>
       <c r="G99">
@@ -3215,10 +3734,10 @@
       <c r="C100">
         <v>0.12376</v>
       </c>
-      <c r="D100" s="7">
+      <c r="D100" s="6">
         <v>0.123597</v>
       </c>
-      <c r="E100" s="5">
+      <c r="E100" s="4">
         <v>0.12370100000000001</v>
       </c>
       <c r="G100">
@@ -3242,13 +3761,13 @@
       <c r="A101">
         <v>8</v>
       </c>
-      <c r="B101" s="7">
+      <c r="B101" s="6">
         <v>0.163885</v>
       </c>
       <c r="C101">
         <v>0.165878</v>
       </c>
-      <c r="D101" s="5">
+      <c r="D101" s="4">
         <v>0.16459599999999999</v>
       </c>
       <c r="E101">
@@ -3281,10 +3800,10 @@
       <c r="C102">
         <v>0.173623</v>
       </c>
-      <c r="D102" s="5">
+      <c r="D102" s="4">
         <v>0.17279600000000001</v>
       </c>
-      <c r="E102" s="7">
+      <c r="E102" s="6">
         <v>0.17285700000000001</v>
       </c>
       <c r="G102">
@@ -3308,13 +3827,13 @@
       <c r="A103">
         <v>32</v>
       </c>
-      <c r="B103" s="5">
+      <c r="B103" s="4">
         <v>0.21310699999999999</v>
       </c>
       <c r="D103">
         <v>0.21371899999999999</v>
       </c>
-      <c r="E103" s="7">
+      <c r="E103" s="6">
         <v>0.21274000000000001</v>
       </c>
       <c r="G103">
@@ -3346,10 +3865,10 @@
       <c r="C106" t="s">
         <v>9</v>
       </c>
-      <c r="D106" s="5" t="s">
+      <c r="D106" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E106" s="7" t="s">
+      <c r="E106" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3360,10 +3879,10 @@
       <c r="B107">
         <v>8.2766999999999993E-2</v>
       </c>
-      <c r="C107" s="7">
+      <c r="C107" s="6">
         <v>8.2600999999999994E-2</v>
       </c>
-      <c r="D107" s="5">
+      <c r="D107" s="4">
         <v>8.2610000000000003E-2</v>
       </c>
       <c r="E107">
@@ -3390,7 +3909,7 @@
       <c r="A108">
         <v>4</v>
       </c>
-      <c r="B108" s="5">
+      <c r="B108" s="4">
         <v>0.123645</v>
       </c>
       <c r="C108">
@@ -3399,7 +3918,7 @@
       <c r="D108">
         <v>0.123775</v>
       </c>
-      <c r="E108" s="7">
+      <c r="E108" s="6">
         <v>0.123318</v>
       </c>
       <c r="G108">
@@ -3429,10 +3948,10 @@
       <c r="C109">
         <v>0.16591700000000001</v>
       </c>
-      <c r="D109" s="5">
+      <c r="D109" s="4">
         <v>0.16576299999999999</v>
       </c>
-      <c r="E109" s="7">
+      <c r="E109" s="6">
         <v>0.16392000000000001</v>
       </c>
       <c r="G109">
@@ -3462,10 +3981,10 @@
       <c r="C110">
         <v>0.206873</v>
       </c>
-      <c r="D110" s="5">
+      <c r="D110" s="4">
         <v>0.166906</v>
       </c>
-      <c r="E110" s="7">
+      <c r="E110" s="6">
         <v>0.16681499999999999</v>
       </c>
       <c r="G110">
@@ -3492,10 +4011,10 @@
       <c r="B111">
         <v>0.214949</v>
       </c>
-      <c r="D111" s="7">
+      <c r="D111" s="6">
         <v>0.21385899999999999</v>
       </c>
-      <c r="E111" s="5">
+      <c r="E111" s="4">
         <v>0.25382399999999999</v>
       </c>
       <c r="G111">
@@ -3526,16 +4045,16 @@
     </row>
     <row r="114" spans="1:10">
       <c r="A114" s="2"/>
-      <c r="B114" s="5" t="s">
+      <c r="B114" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D114" s="5" t="s">
+      <c r="D114" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E114" s="4" t="s">
+      <c r="E114" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3549,10 +4068,10 @@
       <c r="C115" s="2">
         <v>8.2719000000000001E-2</v>
       </c>
-      <c r="D115" s="5">
+      <c r="D115" s="4">
         <v>8.2699999999999996E-2</v>
       </c>
-      <c r="E115" s="4">
+      <c r="E115" s="3">
         <v>8.2623000000000002E-2</v>
       </c>
       <c r="G115">
@@ -3579,13 +4098,13 @@
       <c r="B116" s="2">
         <v>0.123809</v>
       </c>
-      <c r="C116" s="5">
+      <c r="C116" s="4">
         <v>0.12368800000000001</v>
       </c>
       <c r="D116" s="2">
         <v>0.12382799999999999</v>
       </c>
-      <c r="E116" s="4">
+      <c r="E116" s="3">
         <v>0.123682</v>
       </c>
       <c r="G116">
@@ -3609,7 +4128,7 @@
       <c r="A117" s="2">
         <v>8</v>
       </c>
-      <c r="B117" s="4">
+      <c r="B117" s="3">
         <v>0.164525</v>
       </c>
       <c r="C117" s="2">
@@ -3618,7 +4137,7 @@
       <c r="D117" s="2">
         <v>0.16613900000000001</v>
       </c>
-      <c r="E117" s="5">
+      <c r="E117" s="4">
         <v>0.16581699999999999</v>
       </c>
       <c r="G117">
@@ -3642,7 +4161,7 @@
       <c r="A118" s="2">
         <v>16</v>
       </c>
-      <c r="B118" s="5">
+      <c r="B118" s="4">
         <v>0.16878899999999999</v>
       </c>
       <c r="C118" s="2">
@@ -3651,7 +4170,7 @@
       <c r="D118" s="2">
         <v>0.16886499999999999</v>
       </c>
-      <c r="E118" s="4">
+      <c r="E118" s="3">
         <v>0.168736</v>
       </c>
       <c r="G118">
@@ -3679,10 +4198,10 @@
         <v>0.21221699999999999</v>
       </c>
       <c r="C119" s="2"/>
-      <c r="D119" s="4">
+      <c r="D119" s="3">
         <v>0.21132699999999999</v>
       </c>
-      <c r="E119" s="6">
+      <c r="E119" s="5">
         <v>0.21193500000000001</v>
       </c>
       <c r="G119">
